--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_18_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2713304.086138452</v>
+        <v>-2715785.005963912</v>
       </c>
     </row>
     <row r="7">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763541</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838811</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335564</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851353</v>
+        <v>43.81584958587268</v>
       </c>
       <c r="F11" t="n">
-        <v>379.9558991545849</v>
+        <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>80.76951106709674</v>
+        <v>384.001579066327</v>
       </c>
       <c r="H11" t="n">
-        <v>267.6876178001939</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>14.6567831857995</v>
+        <v>14.65678318579946</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104937</v>
+        <v>82.26761520104938</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1430,13 +1430,13 @@
         <v>300.8321118830085</v>
       </c>
       <c r="W11" t="n">
-        <v>322.3208221302865</v>
+        <v>322.3208221302866</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1531,22 +1531,22 @@
         <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>74.21184027320001</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719017</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271164</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292086</v>
+        <v>62.01200608292087</v>
       </c>
       <c r="S13" t="n">
         <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>259.6028517494645</v>
@@ -1594,7 +1594,7 @@
         <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649683</v>
+        <v>126.6881724180096</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335564</v>
+        <v>169.6300402591295</v>
       </c>
       <c r="E14" t="n">
         <v>355.0102234851353</v>
@@ -1622,10 +1622,10 @@
         <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>14.65678318579946</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.2676152010494</v>
+        <v>82.26761520104935</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>176.9978235524937</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>286.5525865782585</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>342.8109540913425</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1777,13 +1777,13 @@
         <v>118.5009014358048</v>
       </c>
       <c r="G16" t="n">
-        <v>112.8991496372539</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
         <v>117.8348683271943</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271164</v>
+        <v>69.43227382271161</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292089</v>
+        <v>1.731299166488924</v>
       </c>
       <c r="S16" t="n">
         <v>162.8488787443154</v>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367015</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577616</v>
       </c>
       <c r="C17" t="n">
         <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.7877584149639</v>
+        <v>280.7164026375526</v>
       </c>
       <c r="E17" t="n">
         <v>308.0350868665428</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359924</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816014</v>
+        <v>220.7124811816015</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.07891872681564</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T17" t="n">
         <v>130.0226869339011</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2020,7 +2020,7 @@
         <v>70.85973170860174</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>77.43656365929215</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S19" t="n">
         <v>115.8737421257229</v>
@@ -2068,7 +2068,7 @@
         <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>207.0890643413393</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2084,7 @@
         <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.7877584149639</v>
+        <v>223.0813256132528</v>
       </c>
       <c r="E20" t="n">
         <v>308.0350868665428</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T20" t="n">
         <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>97.90474570419654</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>253.8569752644159</v>
       </c>
       <c r="W20" t="n">
-        <v>275.345685511694</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>295.83581747275</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2257,7 +2257,7 @@
         <v>70.85973170860174</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>15.03686946432829</v>
+        <v>77.43656365929169</v>
       </c>
       <c r="S22" t="n">
         <v>115.8737421257229</v>
@@ -2302,7 +2302,7 @@
         <v>212.627715130872</v>
       </c>
       <c r="X22" t="n">
-        <v>214.214066378282</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
         <v>144.6893701463758</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245679</v>
+        <v>35.29247858245681</v>
       </c>
       <c r="T23" t="n">
         <v>130.0226869339011</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>168.336391171182</v>
+        <v>105.9366969762183</v>
       </c>
       <c r="C25" t="n">
         <v>93.35153789290879</v>
@@ -2494,7 +2494,7 @@
         <v>70.85973170860174</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411906</v>
+        <v>22.45713720411907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432829</v>
+        <v>15.0368694643283</v>
       </c>
       <c r="S25" t="n">
         <v>115.8737421257229</v>
@@ -2530,7 +2530,7 @@
         <v>145.6536660704502</v>
       </c>
       <c r="U25" t="n">
-        <v>212.3165549998938</v>
+        <v>274.7162491948571</v>
       </c>
       <c r="V25" t="n">
         <v>178.242360118109</v>
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958328</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958327</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3205,7 +3205,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007091</v>
+        <v>11.50304156007084</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="36">
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383237</v>
+        <v>82.14725995383229</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052291</v>
+        <v>69.56210087052283</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010743</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482632</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>68.3410880309233</v>
+        <v>68.34108803092322</v>
       </c>
       <c r="H37" t="n">
-        <v>99.36210032693386</v>
+        <v>89.27723295060956</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333697</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U37" t="n">
         <v>188.5271179775079</v>
@@ -3484,13 +3484,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X37" t="n">
         <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C38" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D38" t="n">
         <v>256.998321392578</v>
@@ -3518,7 +3518,7 @@
         <v>313.2370054253485</v>
       </c>
       <c r="H38" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T38" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U38" t="n">
         <v>153.310451730797</v>
@@ -3569,7 +3569,7 @@
         <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383233</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052287</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>48.74924241846415</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482622</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>68.3410880309232</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>47.07029468621576</v>
       </c>
       <c r="I40" t="n">
-        <v>42.20693826439407</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T40" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V40" t="n">
         <v>154.452923095723</v>
@@ -3724,10 +3724,10 @@
         <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>170.231873425326</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>285.0491214353757</v>
+        <v>285.0491214353756</v>
       </c>
       <c r="C41" t="n">
         <v>267.5881715429026</v>
       </c>
       <c r="D41" t="n">
-        <v>256.9983213925781</v>
+        <v>256.998321392578</v>
       </c>
       <c r="E41" t="n">
-        <v>284.2456498441569</v>
+        <v>284.2456498441568</v>
       </c>
       <c r="F41" t="n">
-        <v>309.1913255136066</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G41" t="n">
-        <v>313.2370054253486</v>
+        <v>313.2370054253485</v>
       </c>
       <c r="H41" t="n">
-        <v>196.9230441592156</v>
+        <v>196.9230441592155</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007093</v>
+        <v>11.50304156007086</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307971</v>
+        <v>153.310451730797</v>
       </c>
       <c r="V41" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W41" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X41" t="n">
-        <v>272.0463804503642</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279486</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>124.3541982182259</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052284</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010736</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846426</v>
+        <v>48.74924241846418</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>47.73632779482625</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>68.34108803092323</v>
       </c>
       <c r="H43" t="n">
-        <v>47.07029468621587</v>
+        <v>47.07029468621579</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>92.08430510333699</v>
+        <v>92.0843051033369</v>
       </c>
       <c r="T43" t="n">
-        <v>121.8642290480643</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U43" t="n">
-        <v>188.5271179775079</v>
+        <v>230.7340562419016</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>285.0491214353756</v>
       </c>
       <c r="C44" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429025</v>
       </c>
       <c r="D44" t="n">
         <v>256.998321392578</v>
@@ -3986,13 +3986,13 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
       </c>
       <c r="H44" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592154</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007083</v>
       </c>
       <c r="T44" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115151</v>
       </c>
       <c r="U44" t="n">
         <v>153.310451730797</v>
       </c>
       <c r="V44" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W44" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X44" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y44" t="n">
-        <v>288.5532184279487</v>
+        <v>288.5532184279485</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383228</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052281</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010733</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846422</v>
+        <v>92.28848050112497</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092327</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>99.3621003269342</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333687</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U46" t="n">
-        <v>188.5271179775079</v>
+        <v>188.5271179775078</v>
       </c>
       <c r="V46" t="n">
-        <v>154.4529230957231</v>
+        <v>154.452923095723</v>
       </c>
       <c r="W46" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X46" t="n">
-        <v>128.0249351609322</v>
+        <v>128.0249351609321</v>
       </c>
       <c r="Y46" t="n">
         <v>120.8999331239898</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1848.527949674859</v>
+        <v>1498.714766761815</v>
       </c>
       <c r="C11" t="n">
-        <v>1506.757499994171</v>
+        <v>1498.714766761815</v>
       </c>
       <c r="D11" t="n">
-        <v>1175.683868647144</v>
+        <v>1167.641135414788</v>
       </c>
       <c r="E11" t="n">
-        <v>817.0876833086234</v>
+        <v>1123.382701489664</v>
       </c>
       <c r="F11" t="n">
-        <v>433.2938457787395</v>
+        <v>739.5888639597799</v>
       </c>
       <c r="G11" t="n">
-        <v>351.7084810645</v>
+        <v>351.7084810645001</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299098</v>
+        <v>81.31694793299097</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039934</v>
+        <v>3063.721540039936</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573494</v>
+        <v>2837.383130573496</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.512310489647</v>
+        <v>2533.512310489649</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479257</v>
+        <v>2207.935722479259</v>
       </c>
       <c r="X11" t="n">
-        <v>2207.935722479257</v>
+        <v>1861.662031477903</v>
       </c>
       <c r="Y11" t="n">
-        <v>2207.935722479257</v>
+        <v>1498.714766761815</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
         <v>2407.411984886741</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>612.8871857316875</v>
+        <v>711.437719463624</v>
       </c>
       <c r="C13" t="n">
-        <v>471.1430700635043</v>
+        <v>569.6936037954408</v>
       </c>
       <c r="D13" t="n">
-        <v>396.1816152420901</v>
+        <v>446.7690316428288</v>
       </c>
       <c r="E13" t="n">
-        <v>396.1816152420901</v>
+        <v>326.0480053201594</v>
       </c>
       <c r="F13" t="n">
-        <v>396.1816152420901</v>
+        <v>326.0480053201594</v>
       </c>
       <c r="G13" t="n">
-        <v>255.6708458765328</v>
+        <v>185.537235954602</v>
       </c>
       <c r="H13" t="n">
-        <v>136.6457263541143</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003741</v>
+        <v>138.285694000374</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5227,22 +5227,22 @@
         <v>1913.369902162336</v>
       </c>
       <c r="T13" t="n">
-        <v>1913.369902162336</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U13" t="n">
-        <v>1651.459102547703</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V13" t="n">
-        <v>1423.96668160154</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="W13" t="n">
-        <v>1161.741578824303</v>
+        <v>1194.659451599716</v>
       </c>
       <c r="X13" t="n">
-        <v>960.9440951860098</v>
+        <v>993.8619679614226</v>
       </c>
       <c r="Y13" t="n">
-        <v>767.3435833022035</v>
+        <v>865.8941170341401</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1884.43143472439</v>
+        <v>1995.092811518094</v>
       </c>
       <c r="C14" t="n">
-        <v>1542.660985043702</v>
+        <v>1653.322361837406</v>
       </c>
       <c r="D14" t="n">
-        <v>1211.587353696675</v>
+        <v>1481.978886828184</v>
       </c>
       <c r="E14" t="n">
-        <v>852.9911683581546</v>
+        <v>1123.382701489663</v>
       </c>
       <c r="F14" t="n">
-        <v>469.1973308282708</v>
+        <v>739.5888639597796</v>
       </c>
       <c r="G14" t="n">
-        <v>81.316947932991</v>
+        <v>351.7084810645</v>
       </c>
       <c r="H14" t="n">
-        <v>81.316947932991</v>
+        <v>81.31694793299097</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810562</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3242.507220395988</v>
+        <v>3242.50722039599</v>
       </c>
       <c r="T14" t="n">
-        <v>3242.507220395988</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U14" t="n">
-        <v>3242.507220395988</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="V14" t="n">
-        <v>3242.507220395988</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="W14" t="n">
-        <v>2953.060163246232</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="X14" t="n">
-        <v>2606.786472244876</v>
+        <v>2717.44784903858</v>
       </c>
       <c r="Y14" t="n">
-        <v>2243.839207528788</v>
+        <v>2354.500584322492</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5370,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.7979853463189</v>
+        <v>901.2692096237413</v>
       </c>
       <c r="C16" t="n">
-        <v>733.0538696781357</v>
+        <v>759.5250939555581</v>
       </c>
       <c r="D16" t="n">
-        <v>610.1292975255237</v>
+        <v>636.6005218029461</v>
       </c>
       <c r="E16" t="n">
-        <v>489.4082712028544</v>
+        <v>515.879495480277</v>
       </c>
       <c r="F16" t="n">
-        <v>369.7103909646681</v>
+        <v>396.1816152420902</v>
       </c>
       <c r="G16" t="n">
         <v>255.6708458765328</v>
@@ -5431,55 +5431,55 @@
         <v>136.6457263541143</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
         <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
-        <v>712.1345656402568</v>
+        <v>712.1345656402569</v>
       </c>
       <c r="M16" t="n">
         <v>1082.942556361061</v>
       </c>
       <c r="N16" t="n">
-        <v>1451.00187818818</v>
+        <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
-        <v>2036.240867784763</v>
+        <v>2036.240867784764</v>
       </c>
       <c r="Q16" t="n">
-        <v>2140.502109058533</v>
+        <v>2140.502109058535</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2138.753322021677</v>
       </c>
       <c r="S16" t="n">
-        <v>1913.369902162335</v>
+        <v>1974.259505108227</v>
       </c>
       <c r="T16" t="n">
-        <v>1913.369902162335</v>
+        <v>1974.259505108227</v>
       </c>
       <c r="U16" t="n">
-        <v>1913.369902162335</v>
+        <v>1712.348705493594</v>
       </c>
       <c r="V16" t="n">
-        <v>1685.877481216172</v>
+        <v>1712.348705493594</v>
       </c>
       <c r="W16" t="n">
-        <v>1423.652378438935</v>
+        <v>1450.123602716357</v>
       </c>
       <c r="X16" t="n">
-        <v>1222.854894800641</v>
+        <v>1249.326119078064</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.254382916835</v>
+        <v>1055.725607194257</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.320338666652</v>
+        <v>1518.904057542001</v>
       </c>
       <c r="C17" t="n">
-        <v>1560.999521934037</v>
+        <v>1224.583240809387</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.375523535084</v>
+        <v>941.0313189532728</v>
       </c>
       <c r="E17" t="n">
-        <v>966.2289711446366</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="F17" t="n">
-        <v>629.884766562826</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S17" t="n">
-        <v>3314.414994612388</v>
+        <v>3289.956853344062</v>
       </c>
       <c r="T17" t="n">
-        <v>3183.078947204407</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>3004.19017068604</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2747.768983550267</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W17" t="n">
-        <v>2469.64202848795</v>
+        <v>2445.183887219624</v>
       </c>
       <c r="X17" t="n">
-        <v>2170.817970434667</v>
+        <v>2146.359829166341</v>
       </c>
       <c r="Y17" t="n">
-        <v>1855.320338666652</v>
+        <v>1830.862197398326</v>
       </c>
     </row>
     <row r="18">
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5610,34 +5610,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5665,22 +5665,22 @@
         <v>160.7715799803863</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,28 +5692,28 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1849.075796917491</v>
+        <v>1912.105791053817</v>
       </c>
       <c r="S19" t="n">
-        <v>1732.031612952114</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1584.906697729437</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1370.445531062878</v>
+        <v>1433.475525199204</v>
       </c>
       <c r="V19" t="n">
-        <v>1190.402743064788</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>975.6272732356243</v>
+        <v>1038.657267371951</v>
       </c>
       <c r="X19" t="n">
-        <v>822.279422545404</v>
+        <v>885.3094166817308</v>
       </c>
       <c r="Y19" t="n">
         <v>676.1285436096709</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.320338666651</v>
+        <v>1797.031012604317</v>
       </c>
       <c r="C20" t="n">
-        <v>1560.999521934037</v>
+        <v>1502.710195871702</v>
       </c>
       <c r="D20" t="n">
         <v>1277.375523535083</v>
       </c>
       <c r="E20" t="n">
-        <v>966.228971144636</v>
+        <v>966.2289711446361</v>
       </c>
       <c r="F20" t="n">
         <v>629.8847665628256</v>
       </c>
       <c r="G20" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156192</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810551</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S20" t="n">
-        <v>3289.956853344064</v>
+        <v>3289.956853344061</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936083</v>
+        <v>3158.62080593608</v>
       </c>
       <c r="U20" t="n">
-        <v>3059.727123406591</v>
+        <v>2979.732029417713</v>
       </c>
       <c r="V20" t="n">
-        <v>3059.727123406591</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="W20" t="n">
-        <v>2781.600168344274</v>
+        <v>2723.31084228194</v>
       </c>
       <c r="X20" t="n">
-        <v>2482.776110290991</v>
+        <v>2424.486784228657</v>
       </c>
       <c r="Y20" t="n">
-        <v>2167.278478522976</v>
+        <v>2108.989152460642</v>
       </c>
     </row>
     <row r="21">
@@ -5823,25 +5823,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5902,22 +5902,22 @@
         <v>160.7715799803863</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604107</v>
+        <v>89.19609340604104</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5929,25 +5929,25 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>1912.105791053818</v>
+        <v>1849.075796917491</v>
       </c>
       <c r="S22" t="n">
-        <v>1795.061607088441</v>
+        <v>1732.031612952114</v>
       </c>
       <c r="T22" t="n">
-        <v>1647.936691865764</v>
+        <v>1584.906697729437</v>
       </c>
       <c r="U22" t="n">
-        <v>1433.475525199205</v>
+        <v>1370.445531062878</v>
       </c>
       <c r="V22" t="n">
-        <v>1253.432737201115</v>
+        <v>1190.402743064788</v>
       </c>
       <c r="W22" t="n">
-        <v>1038.657267371952</v>
+        <v>975.6272732356243</v>
       </c>
       <c r="X22" t="n">
         <v>822.279422545404</v>
@@ -5972,61 +5972,61 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349356</v>
+        <v>973.0946095349354</v>
       </c>
       <c r="F23" t="n">
-        <v>636.750404953125</v>
+        <v>636.7504049531249</v>
       </c>
       <c r="G23" t="n">
         <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="I23" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J23" t="n">
-        <v>429.6625348018609</v>
+        <v>388.481326152852</v>
       </c>
       <c r="K23" t="n">
-        <v>763.4819084917074</v>
+        <v>722.3006998426984</v>
       </c>
       <c r="L23" t="n">
-        <v>1214.516121740116</v>
+        <v>1173.334913091107</v>
       </c>
       <c r="M23" t="n">
-        <v>1748.048026412041</v>
+        <v>1706.866817763031</v>
       </c>
       <c r="N23" t="n">
-        <v>2294.826843470823</v>
+        <v>2253.645634821813</v>
       </c>
       <c r="O23" t="n">
-        <v>2797.79931435016</v>
+        <v>2756.61810570115</v>
       </c>
       <c r="P23" t="n">
-        <v>3192.573680707338</v>
+        <v>3151.392472058328</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893064</v>
+        <v>3609.870674567316</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.88774112412</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859012</v>
+        <v>3633.238772859011</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451031</v>
+        <v>3501.90272545103</v>
       </c>
       <c r="U23" t="n">
         <v>3323.013948932664</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
         <v>2489.641748681291</v>
@@ -6042,70 +6042,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.409492871408</v>
+        <v>948.4094928714077</v>
       </c>
       <c r="C24" t="n">
-        <v>773.956463590281</v>
+        <v>773.9564635902807</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290299</v>
+        <v>625.0220539290294</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235743</v>
+        <v>465.7845989235739</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504594</v>
+        <v>319.2500409504588</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830779</v>
+        <v>182.8869407830769</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094482</v>
+        <v>92.38504642094443</v>
       </c>
       <c r="I24" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243131</v>
+        <v>167.0550243130996</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934474</v>
+        <v>405.3192232934467</v>
       </c>
       <c r="L24" t="n">
-        <v>772.0173836061128</v>
+        <v>772.0173836061119</v>
       </c>
       <c r="M24" t="n">
-        <v>1219.293708828429</v>
+        <v>1219.293708828428</v>
       </c>
       <c r="N24" t="n">
-        <v>1692.816752382883</v>
+        <v>1692.816752382882</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.778031800938</v>
+        <v>2103.778031800937</v>
       </c>
       <c r="P24" t="n">
-        <v>2414.277623277041</v>
+        <v>2414.277623277039</v>
       </c>
       <c r="Q24" t="n">
-        <v>2571.919180923641</v>
+        <v>2571.919180923639</v>
       </c>
       <c r="R24" t="n">
-        <v>2571.774827516156</v>
+        <v>2571.774827516155</v>
       </c>
       <c r="S24" t="n">
-        <v>2442.336941009636</v>
+        <v>2442.336941009635</v>
       </c>
       <c r="T24" t="n">
-        <v>2249.693940687492</v>
+        <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
         <v>2021.626093821907</v>
       </c>
       <c r="V24" t="n">
-        <v>1786.473985590165</v>
+        <v>1786.473985590164</v>
       </c>
       <c r="W24" t="n">
-        <v>1532.236628861963</v>
+        <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
         <v>1324.38512865643</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775274</v>
+        <v>575.9874173775272</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574175</v>
+        <v>481.6929346574174</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528788</v>
+        <v>406.2179954528787</v>
       </c>
       <c r="E25" t="n">
         <v>332.9466020782826</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881693</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
         <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634004</v>
+        <v>96.06173179634003</v>
       </c>
       <c r="I25" t="n">
-        <v>73.3777548224824</v>
+        <v>73.37775482248237</v>
       </c>
       <c r="J25" t="n">
-        <v>118.500387269418</v>
+        <v>118.5003872694179</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182943</v>
+        <v>322.4875702182942</v>
       </c>
       <c r="L25" t="n">
         <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
-        <v>983.2044142663394</v>
+        <v>983.2044142663393</v>
       </c>
       <c r="N25" t="n">
         <v>1324.612790972204</v>
@@ -6166,10 +6166,10 @@
         <v>1856.549890326277</v>
       </c>
       <c r="Q25" t="n">
-        <v>1934.160186478792</v>
+        <v>1934.160186478791</v>
       </c>
       <c r="R25" t="n">
-        <v>1918.971429444117</v>
+        <v>1918.971429444116</v>
       </c>
       <c r="S25" t="n">
         <v>1801.92724547874</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1440.341163589504</v>
+        <v>1377.311169453177</v>
       </c>
       <c r="V25" t="n">
-        <v>1260.298375591414</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>1045.522905762251</v>
+        <v>982.4929116259233</v>
       </c>
       <c r="X25" t="n">
-        <v>892.1750550720302</v>
+        <v>829.145060935703</v>
       </c>
       <c r="Y25" t="n">
-        <v>746.0241761362971</v>
+        <v>682.9941819999699</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
         <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
         <v>81.14691689668915</v>
@@ -6224,31 +6224,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K26" t="n">
-        <v>924.7493799910142</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L26" t="n">
-        <v>1375.783593239423</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M26" t="n">
-        <v>1909.315497911347</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N26" t="n">
-        <v>2456.09431497013</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O26" t="n">
-        <v>3336.058965299585</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P26" t="n">
-        <v>3730.833331656763</v>
+        <v>3518.923563871311</v>
       </c>
       <c r="Q26" t="n">
-        <v>3998.328778277655</v>
+        <v>3977.401766380299</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834458</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
         <v>3994.504809309626</v>
@@ -6260,7 +6260,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
         <v>3040.963574146293</v>
@@ -6303,19 +6303,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E28" t="n">
         <v>449.4840331913841</v>
@@ -6373,7 +6373,7 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,16 +6382,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M28" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N28" t="n">
         <v>1564.908879308444</v>
@@ -6403,7 +6403,7 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R28" t="n">
         <v>2271.591606277852</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X28" t="n">
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6467,19 +6467,19 @@
         <v>771.2510705659141</v>
       </c>
       <c r="L29" t="n">
-        <v>1635.769886219269</v>
+        <v>1222.285283814323</v>
       </c>
       <c r="M29" t="n">
-        <v>2169.301790891193</v>
+        <v>2200.835586644152</v>
       </c>
       <c r="N29" t="n">
-        <v>2716.080607949976</v>
+        <v>2747.614403702934</v>
       </c>
       <c r="O29" t="n">
-        <v>3219.053078829313</v>
+        <v>3250.586874582271</v>
       </c>
       <c r="P29" t="n">
-        <v>3613.827445186491</v>
+        <v>3645.361240939449</v>
       </c>
       <c r="Q29" t="n">
         <v>3933.269522603402</v>
@@ -6494,7 +6494,7 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863831</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
         <v>3346.282596468334</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
@@ -6543,7 +6543,7 @@
         <v>174.8241863873066</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L30" t="n">
         <v>779.7865456803191</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D31" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
@@ -6622,10 +6622,10 @@
         <v>172.7749345960315</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982174</v>
       </c>
       <c r="M31" t="n">
         <v>1176.995117350173</v>
@@ -6649,7 +6649,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T31" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
         <v>1711.385138644068</v>
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038484</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388313</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F32" t="n">
-        <v>698.903701546779</v>
+        <v>698.9037015467783</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
@@ -6701,25 +6701,25 @@
         <v>437.4316968760676</v>
       </c>
       <c r="K32" t="n">
-        <v>771.2510705659141</v>
+        <v>771.251070565914</v>
       </c>
       <c r="L32" t="n">
         <v>1222.285283814323</v>
       </c>
       <c r="M32" t="n">
-        <v>1755.817188486248</v>
+        <v>1755.817188486247</v>
       </c>
       <c r="N32" t="n">
-        <v>2302.59600554503</v>
+        <v>2302.596005545029</v>
       </c>
       <c r="O32" t="n">
-        <v>2805.568476424367</v>
+        <v>2805.568476424366</v>
       </c>
       <c r="P32" t="n">
-        <v>3518.923563871313</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3977.401766380301</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
@@ -6731,16 +6731,16 @@
         <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W32" t="n">
         <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805548</v>
@@ -6777,19 +6777,19 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
@@ -6856,16 +6856,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982172</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
         <v>1564.908879308444</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F35" t="n">
         <v>581.8252978307332</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218342</v>
@@ -6947,10 +6947,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296686</v>
@@ -6962,22 +6962,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U35" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7005,10 +7005,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7017,16 +7017,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>651.0765132702857</v>
+        <v>740.9069705127577</v>
       </c>
       <c r="C37" t="n">
-        <v>580.811764916222</v>
+        <v>670.6422221586942</v>
       </c>
       <c r="D37" t="n">
-        <v>529.3665600777297</v>
+        <v>520.5255827463584</v>
       </c>
       <c r="E37" t="n">
-        <v>381.4534664953366</v>
+        <v>372.6124891639653</v>
       </c>
       <c r="F37" t="n">
-        <v>333.2349535712696</v>
+        <v>225.7225416660549</v>
       </c>
       <c r="G37" t="n">
-        <v>264.2035515198319</v>
+        <v>156.6911396146173</v>
       </c>
       <c r="H37" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V37" t="n">
-        <v>1176.23853988366</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205427</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X37" t="n">
-        <v>856.1746880963688</v>
+        <v>946.0051453388405</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.053543526682</v>
+        <v>823.8840007691539</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470375</v>
+        <v>1711.141932470374</v>
       </c>
       <c r="C38" t="n">
         <v>1440.850850103806</v>
@@ -7157,61 +7157,61 @@
         <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464984</v>
+        <v>894.1397680464979</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307341</v>
+        <v>581.8252978307337</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515856</v>
+        <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746129</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049858</v>
+        <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
@@ -7248,22 +7248,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>839.5784050866014</v>
+        <v>599.6022649647789</v>
       </c>
       <c r="C40" t="n">
-        <v>769.3136567325379</v>
+        <v>430.666082036872</v>
       </c>
       <c r="D40" t="n">
-        <v>717.8684518940456</v>
+        <v>280.5494426245363</v>
       </c>
       <c r="E40" t="n">
-        <v>569.9553583116525</v>
+        <v>231.3077836159866</v>
       </c>
       <c r="F40" t="n">
-        <v>423.0654108137421</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G40" t="n">
-        <v>255.3625741884611</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>109.1453874063189</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S40" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T40" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U40" t="n">
-        <v>1520.753485332019</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V40" t="n">
-        <v>1364.740431699975</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W40" t="n">
-        <v>1173.994696236858</v>
+        <v>1075.323261663014</v>
       </c>
       <c r="X40" t="n">
-        <v>1044.676579912684</v>
+        <v>903.3718743647053</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.5554353429977</v>
+        <v>682.5792952211751</v>
       </c>
     </row>
     <row r="41">
@@ -7394,13 +7394,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464974</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307328</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G41" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H41" t="n">
         <v>66.51211643218342</v>
@@ -7409,10 +7409,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329465</v>
@@ -7421,7 +7421,7 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
         <v>2623.528026939508</v>
@@ -7442,7 +7442,7 @@
         <v>3206.680274668175</v>
       </c>
       <c r="U41" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V41" t="n">
         <v>2819.429779746127</v>
@@ -7454,7 +7454,7 @@
         <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
-        <v>1999.070337960651</v>
+        <v>1999.070337960652</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
         <v>66.51211643218342</v>
@@ -7491,16 +7491,16 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>796.945134112466</v>
+        <v>402.2593958170921</v>
       </c>
       <c r="C43" t="n">
-        <v>628.0089511845591</v>
+        <v>331.9946474630286</v>
       </c>
       <c r="D43" t="n">
-        <v>477.8923117722234</v>
+        <v>280.5494426245364</v>
       </c>
       <c r="E43" t="n">
-        <v>428.6506527636736</v>
+        <v>231.3077836159867</v>
       </c>
       <c r="F43" t="n">
-        <v>281.7607052657633</v>
+        <v>183.0892706919198</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H43" t="n">
         <v>66.51211643218342</v>
@@ -7567,16 +7567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S43" t="n">
-        <v>1834.280098489163</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
         <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1520.753485332019</v>
+        <v>1478.120214357883</v>
       </c>
       <c r="V43" t="n">
-        <v>1364.740431699975</v>
+        <v>1223.435726151997</v>
       </c>
       <c r="W43" t="n">
-        <v>1173.994696236858</v>
+        <v>934.0185561150358</v>
       </c>
       <c r="X43" t="n">
-        <v>1044.676579912684</v>
+        <v>706.0290052170185</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.5554353429973</v>
+        <v>583.9078606473319</v>
       </c>
     </row>
     <row r="44">
@@ -7631,67 +7631,67 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495727</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810543</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T44" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668174</v>
       </c>
       <c r="U44" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515854</v>
       </c>
       <c r="V44" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W44" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049856</v>
       </c>
       <c r="X44" t="n">
         <v>2290.53823536262</v>
       </c>
       <c r="Y44" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960651</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
         <v>2096.912393410638</v>
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>651.0765132702859</v>
+        <v>839.5784050866012</v>
       </c>
       <c r="C46" t="n">
-        <v>580.8117649162224</v>
+        <v>769.3136567325377</v>
       </c>
       <c r="D46" t="n">
-        <v>529.36656007773</v>
+        <v>717.8684518940454</v>
       </c>
       <c r="E46" t="n">
-        <v>480.1249010691803</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F46" t="n">
-        <v>333.2349535712699</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G46" t="n">
-        <v>264.2035515198322</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H46" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S46" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T46" t="n">
-        <v>1522.683025816217</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U46" t="n">
-        <v>1332.251593515704</v>
+        <v>1520.753485332018</v>
       </c>
       <c r="V46" t="n">
-        <v>1176.23853988366</v>
+        <v>1364.740431699975</v>
       </c>
       <c r="W46" t="n">
-        <v>985.4928044205429</v>
+        <v>1173.994696236858</v>
       </c>
       <c r="X46" t="n">
-        <v>856.174688096369</v>
+        <v>1044.676579912684</v>
       </c>
       <c r="Y46" t="n">
-        <v>734.0535435266822</v>
+        <v>922.5554353429974</v>
       </c>
     </row>
   </sheetData>
@@ -8456,13 +8456,13 @@
         <v>184.4039433729009</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389606</v>
+        <v>191.4948909389605</v>
       </c>
       <c r="M8" t="n">
         <v>181.0856325333069</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830243</v>
+        <v>179.3553748830242</v>
       </c>
       <c r="O8" t="n">
         <v>182.8301554383992</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875975</v>
+        <v>112.6562001875974</v>
       </c>
       <c r="K9" t="n">
         <v>113.6031223372534</v>
@@ -8541,7 +8541,7 @@
         <v>104.1013981253594</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677669</v>
+        <v>92.30246558677666</v>
       </c>
       <c r="O9" t="n">
         <v>106.8829608359737</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>127.4994347185295</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9656,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>105.0013903333778</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,16 +9887,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>19.40311602546475</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>21.13839585591467</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,10 +10115,10 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>71.87446026386803</v>
+        <v>40.02214132148598</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10364,13 +10364,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>277.2206841544151</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>21.13839585591369</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>311.1943738992626</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>303.2320679992302</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>342.8109540913425</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>47.48348615788587</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>69.43227382271164</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23467,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890427</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>64.97633434695874</v>
       </c>
     </row>
     <row r="14">
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>158.132854774427</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>224.0750253717755</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>35.76823555202807</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>26.20651203464782</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>60.28070691643192</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
-        <v>259.2916916184864</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23729,19 +23729,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.07135577741139741</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>24.21355985564116</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23972,7 +23972,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>57.7064328017111</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -24023,13 +24023,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>79.1951430489864</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>253.8569752644159</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>275.345685511694</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1251196.992908679</v>
+        <v>1251196.99290868</v>
       </c>
     </row>
     <row r="7">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40963.81693585192</v>
+        <v>40963.81693585191</v>
       </c>
       <c r="C2" t="n">
-        <v>40963.81693585191</v>
+        <v>40963.8169358519</v>
       </c>
       <c r="D2" t="n">
-        <v>40964.9334902973</v>
+        <v>40964.93349029731</v>
       </c>
       <c r="E2" t="n">
-        <v>36477.00004524873</v>
+        <v>36477.00004524874</v>
       </c>
       <c r="F2" t="n">
         <v>36477.00004524874</v>
       </c>
       <c r="G2" t="n">
-        <v>39726.54106232683</v>
+        <v>39726.54106232676</v>
       </c>
       <c r="H2" t="n">
-        <v>39726.54106232677</v>
+        <v>39726.54106232681</v>
       </c>
       <c r="I2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="K2" t="n">
-        <v>41052.08849321416</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="L2" t="n">
         <v>41052.08849321419</v>
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552262</v>
+        <v>59764.55367552266</v>
       </c>
       <c r="E3" t="n">
         <v>1089238.972163632</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>37580.1092948742</v>
+        <v>37580.10929487389</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983363</v>
+        <v>22821.46782983372</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179692</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487405</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927241</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.396066964953207e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>421637.9387995427</v>
       </c>
       <c r="E4" t="n">
-        <v>38804.27401362518</v>
+        <v>38804.27401362517</v>
       </c>
       <c r="F4" t="n">
-        <v>38804.27401362518</v>
+        <v>38804.2740136252</v>
       </c>
       <c r="G4" t="n">
+        <v>75832.4343750674</v>
+      </c>
+      <c r="H4" t="n">
         <v>75832.43437506739</v>
       </c>
-      <c r="H4" t="n">
-        <v>75832.43437506737</v>
-      </c>
       <c r="I4" t="n">
-        <v>88045.16093451306</v>
+        <v>88045.16093451311</v>
       </c>
       <c r="J4" t="n">
-        <v>84858.15940173085</v>
+        <v>84858.15940173093</v>
       </c>
       <c r="K4" t="n">
         <v>84858.15940173085</v>
       </c>
       <c r="L4" t="n">
-        <v>84858.15940173084</v>
+        <v>84858.15940173088</v>
       </c>
       <c r="M4" t="n">
-        <v>90964.01098815707</v>
+        <v>90964.01098815716</v>
       </c>
       <c r="N4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815714</v>
       </c>
       <c r="O4" t="n">
-        <v>90964.01098815708</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="P4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>35148.90543186635</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.4903648264</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
-        <v>76569.4903648264</v>
+        <v>76569.49036482644</v>
       </c>
       <c r="G5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521486</v>
       </c>
       <c r="H5" t="n">
-        <v>80518.64312521491</v>
+        <v>80518.64312521486</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.5283018421</v>
+        <v>85736.52830184209</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="M5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="N5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
       <c r="O5" t="n">
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26519,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-434313.0330599685</v>
+        <v>-434317.4466378366</v>
       </c>
       <c r="C6" t="n">
-        <v>-434313.0330599686</v>
+        <v>-434317.4466378368</v>
       </c>
       <c r="D6" t="n">
-        <v>-475586.4644166344</v>
+        <v>-475590.8221667802</v>
       </c>
       <c r="E6" t="n">
-        <v>-1168135.736496835</v>
+        <v>-1168364.490919234</v>
       </c>
       <c r="F6" t="n">
-        <v>-78896.76433320285</v>
+        <v>-79125.51875560118</v>
       </c>
       <c r="G6" t="n">
-        <v>-154204.6457328297</v>
+        <v>-154270.9231043738</v>
       </c>
       <c r="H6" t="n">
-        <v>-116624.5364379555</v>
+        <v>-116690.8138094998</v>
       </c>
       <c r="I6" t="n">
-        <v>-155551.0685729746</v>
+        <v>-155551.0685729748</v>
       </c>
       <c r="J6" t="n">
-        <v>-158593.4456051197</v>
+        <v>-158593.4456051198</v>
       </c>
       <c r="K6" t="n">
         <v>-133184.0125833228</v>
@@ -26552,13 +26552,13 @@
         <v>-170764.1218781968</v>
       </c>
       <c r="M6" t="n">
-        <v>-334598.6197939169</v>
+        <v>-334598.6197939172</v>
       </c>
       <c r="N6" t="n">
         <v>-132430.5198011928</v>
       </c>
       <c r="O6" t="n">
-        <v>-132430.5198011928</v>
+        <v>-132430.5198011927</v>
       </c>
       <c r="P6" t="n">
         <v>-132430.5198011928</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G2" t="n">
         <v>73.89528320571904</v>
@@ -26707,25 +26707,25 @@
         <v>73.89528320571904</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790622</v>
+        <v>69.78465283790626</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022923</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>831.4014554022923</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="I4" t="n">
-        <v>917.2219352810299</v>
+        <v>917.2219352810297</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208614</v>
@@ -26820,16 +26820,16 @@
         <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951236</v>
+        <v>50.70958360951246</v>
       </c>
       <c r="N2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790622</v>
+        <v>69.78465283790626</v>
       </c>
       <c r="E3" t="n">
         <v>1019.992047755392</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873705</v>
+        <v>85.82047987873739</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758451</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959706</v>
+        <v>648.4664495959711</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -28035,7 +28035,7 @@
         <v>84.46220888519086</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990372</v>
+        <v>7.649035050990364</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317055</v>
+        <v>75.62456067317054</v>
       </c>
       <c r="R10" t="n">
         <v>171.6351144437878</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712648</v>
+        <v>26.92014658712649</v>
       </c>
     </row>
     <row r="17">
@@ -28582,7 +28582,7 @@
         <v>73.89528320571904</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>11.49558901075518</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="S19" t="n">
         <v>73.89528320571904</v>
@@ -28788,7 +28788,7 @@
         <v>73.89528320571904</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075554</v>
       </c>
     </row>
     <row r="20">
@@ -28819,7 +28819,7 @@
         <v>73.89528320571904</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075565</v>
       </c>
       <c r="S22" t="n">
         <v>73.89528320571904</v>
@@ -29022,7 +29022,7 @@
         <v>73.89528320571904</v>
       </c>
       <c r="X22" t="n">
-        <v>11.49558901075511</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="Y22" t="n">
         <v>73.89528320571904</v>
@@ -29056,7 +29056,7 @@
         <v>73.89528320571904</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29193,7 +29193,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.49558901075534</v>
+        <v>73.89528320571904</v>
       </c>
       <c r="C25" t="n">
         <v>73.89528320571904</v>
@@ -29250,7 +29250,7 @@
         <v>73.89528320571904</v>
       </c>
       <c r="U25" t="n">
-        <v>73.89528320571904</v>
+        <v>11.49558901075574</v>
       </c>
       <c r="V25" t="n">
         <v>73.89528320571904</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859284</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.9751366185921</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810492</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="H37" t="n">
-        <v>45.39291458738693</v>
+        <v>55.47778196371122</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.68472022810492</v>
+        <v>97.68472022810501</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I40" t="n">
-        <v>54.14548214544402</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810496</v>
+        <v>55.47778196371115</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.47778196371135</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
       <c r="U43" t="n">
-        <v>97.68472022810491</v>
+        <v>55.47778196371129</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810491</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810491</v>
+        <v>97.68472022810499</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810495</v>
+        <v>54.14548214544421</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>45.39291458738658</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="U46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="V46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="W46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="X46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810502</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413314</v>
+        <v>0.2805413179413315</v>
       </c>
       <c r="H8" t="n">
-        <v>2.87309377236666</v>
+        <v>2.873093772366662</v>
       </c>
       <c r="I8" t="n">
         <v>10.81556915993319</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362309</v>
+        <v>23.81059368362311</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207965</v>
+        <v>35.68590767207968</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102668</v>
+        <v>44.27152403102671</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396583</v>
+        <v>49.26060069396586</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356664</v>
+        <v>50.05768871356668</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328752</v>
+        <v>47.26805598328755</v>
       </c>
       <c r="P8" t="n">
-        <v>40.3421921966109</v>
+        <v>40.34219219661093</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.29530624783697</v>
+        <v>30.29530624783698</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313217</v>
+        <v>17.62255356313218</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282588094</v>
+        <v>6.392835282588099</v>
       </c>
       <c r="T8" t="n">
         <v>1.228069619288179</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0224433054353065</v>
+        <v>0.02244330543530652</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796473</v>
+        <v>0.1501028381796475</v>
       </c>
       <c r="H9" t="n">
         <v>1.449677410840279</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384694</v>
+        <v>5.168014384694002</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906923</v>
+        <v>14.18142647906924</v>
       </c>
       <c r="K9" t="n">
-        <v>24.2383166371056</v>
+        <v>24.23831663710562</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264668</v>
+        <v>32.5914079126467</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665889</v>
+        <v>38.03263579665891</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655661</v>
+        <v>39.03924649655664</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847075</v>
+        <v>35.71328360847077</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449775</v>
+        <v>28.66305863449777</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447569</v>
+        <v>19.1604956244757</v>
       </c>
       <c r="R9" t="n">
-        <v>9.319542882767934</v>
+        <v>9.319542882767939</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608799</v>
+        <v>2.7880943846088</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890169</v>
+        <v>0.6050197731890173</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345225</v>
+        <v>0.00987518672234523</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1258411772486833</v>
+        <v>0.1258411772486834</v>
       </c>
       <c r="H10" t="n">
         <v>1.118842466811022</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078588</v>
+        <v>3.78438740307859</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481912</v>
+        <v>8.896971231481917</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489248</v>
+        <v>14.62045677489249</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477243</v>
+        <v>18.70915102477245</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908224</v>
+        <v>19.72617653908225</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115535</v>
+        <v>19.25713215115536</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839875027</v>
+        <v>17.78707839875028</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287711</v>
+        <v>15.21991838287712</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852384</v>
+        <v>10.53748257852385</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381706</v>
+        <v>5.65827693338171</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233871</v>
+        <v>2.193068516233873</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062556</v>
+        <v>0.5376850300625563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564554</v>
+        <v>0.006864064213564558</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970261</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,7 +33260,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837928</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019268</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
       </c>
       <c r="L13" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M13" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N13" t="n">
-        <v>371.7770927546666</v>
+        <v>371.7770927546665</v>
       </c>
       <c r="O13" t="n">
         <v>329.2732768097662</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019271</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
-        <v>374.5535259806102</v>
+        <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
-        <v>329.2732768097661</v>
+        <v>329.2732768097663</v>
       </c>
       <c r="P16" t="n">
-        <v>261.8772177322368</v>
+        <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36291,13 +36291,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>318.286435687242</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>355.7956951370973</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>270.1974208291842</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>80.75159439813939</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
@@ -36850,7 +36850,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>322.6687650675875</v>
+        <v>290.8164461252055</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597723</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
@@ -37069,28 +37069,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>675.9826703737867</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>80.75159439813847</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M34" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P34" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637032</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3693751564858</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129119</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004595</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
